--- a/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.914359168898102</v>
+        <v>3.914359168897931</v>
       </c>
       <c r="C2">
-        <v>1.126166936818436</v>
+        <v>1.126166936818322</v>
       </c>
       <c r="D2">
-        <v>0.325875453098547</v>
+        <v>0.325875453098007</v>
       </c>
       <c r="E2">
-        <v>1.508533817718856</v>
+        <v>1.508533817718842</v>
       </c>
       <c r="F2">
-        <v>6.64452350282707</v>
+        <v>6.644523502826956</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,8 +456,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,13 +474,13 @@
         <v>0.9572611794098975</v>
       </c>
       <c r="D3">
-        <v>0.2831316595814144</v>
+        <v>0.2831316595813149</v>
       </c>
       <c r="E3">
-        <v>1.274478987757249</v>
+        <v>1.274478987757362</v>
       </c>
       <c r="F3">
-        <v>5.740081127864897</v>
+        <v>5.740081127864812</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,8 +503,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,16 +518,16 @@
         <v>2.984560682169786</v>
       </c>
       <c r="C4">
-        <v>0.8573255503605139</v>
+        <v>0.8573255503602297</v>
       </c>
       <c r="D4">
-        <v>0.2579759541256266</v>
+        <v>0.2579759541252429</v>
       </c>
       <c r="E4">
-        <v>1.1371589253542</v>
+        <v>1.137158925354242</v>
       </c>
       <c r="F4">
-        <v>5.205753057272688</v>
+        <v>5.205753057272602</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -532,25 +550,31 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.846075309607897</v>
+        <v>2.846075309607954</v>
       </c>
       <c r="C5">
-        <v>0.8173694701361285</v>
+        <v>0.8173694701358158</v>
       </c>
       <c r="D5">
-        <v>0.2479501194263207</v>
+        <v>0.2479501194263776</v>
       </c>
       <c r="E5">
-        <v>1.08250166838873</v>
+        <v>1.082501668388758</v>
       </c>
       <c r="F5">
-        <v>4.992389693943153</v>
+        <v>4.992389693943124</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -573,25 +597,31 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.823219155933714</v>
+        <v>2.823219155933543</v>
       </c>
       <c r="C6">
         <v>0.8107764951696481</v>
       </c>
       <c r="D6">
-        <v>0.2462976683817857</v>
+        <v>0.2462976683820415</v>
       </c>
       <c r="E6">
-        <v>1.073496571775607</v>
+        <v>1.073496571775649</v>
       </c>
       <c r="F6">
-        <v>4.957201619896125</v>
+        <v>4.957201619896153</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,25 +644,31 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.982683379503271</v>
+        <v>2.982683379503158</v>
       </c>
       <c r="C7">
-        <v>0.8567837937618208</v>
+        <v>0.856783793760826</v>
       </c>
       <c r="D7">
-        <v>0.2578398885759299</v>
+        <v>0.2578398885763988</v>
       </c>
       <c r="E7">
-        <v>1.136416892278035</v>
+        <v>1.136416892277936</v>
       </c>
       <c r="F7">
-        <v>5.202858922663552</v>
+        <v>5.202858922663637</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -655,8 +691,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,16 +706,16 @@
         <v>3.710173144604994</v>
       </c>
       <c r="C8">
-        <v>1.067026413432615</v>
+        <v>1.067026413432558</v>
       </c>
       <c r="D8">
-        <v>0.3108795245656069</v>
+        <v>0.3108795245658484</v>
       </c>
       <c r="E8">
-        <v>1.42630338190682</v>
+        <v>1.426303381906834</v>
       </c>
       <c r="F8">
-        <v>6.327722628874369</v>
+        <v>6.327722628874312</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -696,8 +738,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,16 +753,16 @@
         <v>5.265612434942454</v>
       </c>
       <c r="C9">
-        <v>1.519464088145412</v>
+        <v>1.519464088145753</v>
       </c>
       <c r="D9">
-        <v>0.4262493254934157</v>
+        <v>0.4262493254933304</v>
       </c>
       <c r="E9">
-        <v>2.063029095768741</v>
+        <v>2.063029095768655</v>
       </c>
       <c r="F9">
-        <v>8.75047842122413</v>
+        <v>8.750478421224301</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,16 +800,16 @@
         <v>6.544014937011752</v>
       </c>
       <c r="C10">
-        <v>1.89532847186706</v>
+        <v>1.895328471866094</v>
       </c>
       <c r="D10">
-        <v>0.522916915836646</v>
+        <v>0.5229169158366176</v>
       </c>
       <c r="E10">
-        <v>2.605783700958995</v>
+        <v>2.605783700959009</v>
       </c>
       <c r="F10">
-        <v>10.75424082456158</v>
+        <v>10.75424082456163</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -778,25 +832,31 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.173871963502847</v>
+        <v>7.17387196350262</v>
       </c>
       <c r="C11">
-        <v>2.082108635261989</v>
+        <v>2.082108635262387</v>
       </c>
       <c r="D11">
-        <v>0.5711190794098684</v>
+        <v>0.5711190794094421</v>
       </c>
       <c r="E11">
-        <v>2.880487308587078</v>
+        <v>2.880487308587135</v>
       </c>
       <c r="F11">
-        <v>11.7442678578837</v>
+        <v>11.74426785788381</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -819,25 +879,31 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.42164443158299</v>
+        <v>7.421644431583275</v>
       </c>
       <c r="C12">
-        <v>2.155900022332105</v>
+        <v>2.155900022332446</v>
       </c>
       <c r="D12">
-        <v>0.5901816606651096</v>
+        <v>0.5901816606653654</v>
       </c>
       <c r="E12">
-        <v>2.989983930174844</v>
+        <v>2.989983930174816</v>
       </c>
       <c r="F12">
-        <v>12.13409822220416</v>
+        <v>12.13409822220427</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -860,25 +926,31 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.367823890402519</v>
+        <v>7.367823890402349</v>
       </c>
       <c r="C13">
-        <v>2.139855567028462</v>
+        <v>2.139855567028064</v>
       </c>
       <c r="D13">
-        <v>0.5860361389528919</v>
+        <v>0.5860361389524655</v>
       </c>
       <c r="E13">
-        <v>2.96612815560195</v>
+        <v>2.966128155602036</v>
       </c>
       <c r="F13">
-        <v>12.04940447598295</v>
+        <v>12.04940447598301</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -901,25 +973,31 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.194054377950579</v>
+        <v>7.194054377950522</v>
       </c>
       <c r="C14">
-        <v>2.088112497045017</v>
+        <v>2.08811249704496</v>
       </c>
       <c r="D14">
         <v>0.5726697167179964</v>
       </c>
       <c r="E14">
-        <v>2.88937530682017</v>
+        <v>2.889375306820199</v>
       </c>
       <c r="F14">
-        <v>11.77601453255403</v>
+        <v>11.77601453255409</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -942,25 +1020,31 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.08890482141237</v>
+        <v>7.088904821412029</v>
       </c>
       <c r="C15">
-        <v>2.056845769327651</v>
+        <v>2.056845769326799</v>
       </c>
       <c r="D15">
-        <v>0.5645950867809688</v>
+        <v>0.5645950867805141</v>
       </c>
       <c r="E15">
-        <v>2.843128857796899</v>
+        <v>2.84312885779687</v>
       </c>
       <c r="F15">
-        <v>11.61063028757542</v>
+        <v>11.61063028757553</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -983,25 +1067,31 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.50400352544915</v>
+        <v>6.504003525449036</v>
       </c>
       <c r="C16">
-        <v>1.883500865547262</v>
+        <v>1.883500865547148</v>
       </c>
       <c r="D16">
-        <v>0.5198674745138021</v>
+        <v>0.5198674745138305</v>
       </c>
       <c r="E16">
-        <v>2.588503621290769</v>
+        <v>2.588503621290798</v>
       </c>
       <c r="F16">
-        <v>10.69140251426279</v>
+        <v>10.69140251426273</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1024,25 +1114,31 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.15895970797817</v>
+        <v>6.158959707978056</v>
       </c>
       <c r="C17">
-        <v>1.781682087096442</v>
+        <v>1.78168208709593</v>
       </c>
       <c r="D17">
-        <v>0.4936334766607047</v>
+        <v>0.4936334766608752</v>
       </c>
       <c r="E17">
-        <v>2.44029819335357</v>
+        <v>2.440298193353655</v>
       </c>
       <c r="F17">
-        <v>10.14980673568229</v>
+        <v>10.14980673568218</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1065,25 +1161,31 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.964870503361794</v>
+        <v>5.964870503361681</v>
       </c>
       <c r="C18">
-        <v>1.724545184917986</v>
+        <v>1.724545184918327</v>
       </c>
       <c r="D18">
-        <v>0.4789269749357175</v>
+        <v>0.4789269749356322</v>
       </c>
       <c r="E18">
-        <v>2.357557198201363</v>
+        <v>2.357557198201349</v>
       </c>
       <c r="F18">
-        <v>9.845408758620636</v>
+        <v>9.845408758620749</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1106,25 +1208,31 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.899848177217791</v>
+        <v>5.899848177217564</v>
       </c>
       <c r="C19">
-        <v>1.705425019204313</v>
+        <v>1.705425019203403</v>
       </c>
       <c r="D19">
-        <v>0.4740082858559163</v>
+        <v>0.4740082858556889</v>
       </c>
       <c r="E19">
-        <v>2.329936379577049</v>
+        <v>2.329936379577063</v>
       </c>
       <c r="F19">
-        <v>9.743475328211446</v>
+        <v>9.743475328211474</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1147,25 +1255,31 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.195223673441717</v>
+        <v>6.195223673441546</v>
       </c>
       <c r="C20">
-        <v>1.792368411244752</v>
+        <v>1.792368411244809</v>
       </c>
       <c r="D20">
-        <v>0.4963852983871107</v>
+        <v>0.4963852983870254</v>
       </c>
       <c r="E20">
-        <v>2.455807017030651</v>
+        <v>2.455807017030551</v>
       </c>
       <c r="F20">
-        <v>10.20670192538611</v>
+        <v>10.20670192538603</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1188,25 +1302,31 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.244820566280566</v>
+        <v>7.244820566280396</v>
       </c>
       <c r="C21">
-        <v>2.103219748298898</v>
+        <v>2.103219748299239</v>
       </c>
       <c r="D21">
-        <v>0.5765718000771756</v>
+        <v>0.5765718000771471</v>
       </c>
       <c r="E21">
-        <v>2.911756093989709</v>
+        <v>2.91175609398968</v>
       </c>
       <c r="F21">
-        <v>11.8558748385849</v>
+        <v>11.85587483858478</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1229,25 +1349,31 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.986573740760264</v>
+        <v>7.986573740760207</v>
       </c>
       <c r="C22">
-        <v>2.324852423173581</v>
+        <v>2.324852423174207</v>
       </c>
       <c r="D22">
         <v>0.6338543903200389</v>
       </c>
       <c r="E22">
-        <v>3.242854261593664</v>
+        <v>3.242854261593649</v>
       </c>
       <c r="F22">
-        <v>13.02354365974946</v>
+        <v>13.02354365974952</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1270,25 +1396,31 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.584561878587181</v>
+        <v>7.584561878587124</v>
       </c>
       <c r="C23">
-        <v>2.204521223113716</v>
+        <v>2.204521223114284</v>
       </c>
       <c r="D23">
-        <v>0.6027465007992987</v>
+        <v>0.6027465007995261</v>
       </c>
       <c r="E23">
-        <v>3.062441503718489</v>
+        <v>3.062441503718503</v>
       </c>
       <c r="F23">
-        <v>12.39051988212776</v>
+        <v>12.39051988212765</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1311,22 +1443,28 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.178815561461818</v>
+        <v>6.178815561461988</v>
       </c>
       <c r="C24">
-        <v>1.787532818178761</v>
+        <v>1.787532818178875</v>
       </c>
       <c r="D24">
-        <v>0.4951400433990898</v>
+        <v>0.4951400433991182</v>
       </c>
       <c r="E24">
-        <v>2.448787904000667</v>
+        <v>2.448787904000696</v>
       </c>
       <c r="F24">
         <v>10.18095814634879</v>
@@ -1352,22 +1490,28 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.826028893508465</v>
+        <v>4.826028893508067</v>
       </c>
       <c r="C25">
-        <v>1.391116050906078</v>
+        <v>1.391116050906419</v>
       </c>
       <c r="D25">
-        <v>0.3933856390594315</v>
+        <v>0.3933856390596731</v>
       </c>
       <c r="E25">
-        <v>1.880604580108283</v>
+        <v>1.880604580108368</v>
       </c>
       <c r="F25">
         <v>8.063775557493216</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.914359168897931</v>
+        <v>0.99537212182085</v>
       </c>
       <c r="C2">
-        <v>1.126166936818322</v>
+        <v>0.1373896819638958</v>
       </c>
       <c r="D2">
-        <v>0.325875453098007</v>
+        <v>0.1102708329160293</v>
       </c>
       <c r="E2">
-        <v>1.508533817718842</v>
+        <v>0.03943840680648059</v>
       </c>
       <c r="F2">
-        <v>6.644523502826956</v>
+        <v>2.672455984771148</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.97243183098854</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.03468255659601</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2831869899105044</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.330642336703761</v>
+        <v>0.8652978625927119</v>
       </c>
       <c r="C3">
-        <v>0.9572611794098975</v>
+        <v>0.1186730373222531</v>
       </c>
       <c r="D3">
-        <v>0.2831316595813149</v>
+        <v>0.1098907612133289</v>
       </c>
       <c r="E3">
-        <v>1.274478987757362</v>
+        <v>0.03649973709187826</v>
       </c>
       <c r="F3">
-        <v>5.740081127864812</v>
+        <v>2.463072915715884</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.844813092031075</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8951025098831167</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2506323633887462</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.984560682169786</v>
+        <v>0.786801798707728</v>
       </c>
       <c r="C4">
-        <v>0.8573255503602297</v>
+        <v>0.1073259060489988</v>
       </c>
       <c r="D4">
-        <v>0.2579759541252429</v>
+        <v>0.1096617843468479</v>
       </c>
       <c r="E4">
-        <v>1.137158925354242</v>
+        <v>0.03474704728526667</v>
       </c>
       <c r="F4">
-        <v>5.205753057272602</v>
+        <v>2.33765782561747</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.768532288197761</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8107649303888422</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2310512718310207</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.846075309607954</v>
+        <v>0.7551205542820583</v>
       </c>
       <c r="C5">
-        <v>0.8173694701358158</v>
+        <v>0.102732149848876</v>
       </c>
       <c r="D5">
-        <v>0.2479501194263776</v>
+        <v>0.1095692770165719</v>
       </c>
       <c r="E5">
-        <v>1.082501668388758</v>
+        <v>0.03404487004883983</v>
       </c>
       <c r="F5">
-        <v>4.992389693943124</v>
+        <v>2.28726944626645</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.737924179225118</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7766982234459192</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2231640883284456</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.823219155933543</v>
+        <v>0.7498773640371326</v>
       </c>
       <c r="C6">
-        <v>0.8107764951696481</v>
+        <v>0.1019710183589524</v>
       </c>
       <c r="D6">
-        <v>0.2462976683820415</v>
+        <v>0.1095539563251329</v>
       </c>
       <c r="E6">
-        <v>1.073496571775649</v>
+        <v>0.03392897624758717</v>
       </c>
       <c r="F6">
-        <v>4.957201619896153</v>
+        <v>2.278943925900535</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.732869261137537</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7710585227363822</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2218597153143804</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.982683379503158</v>
+        <v>0.7863733413872751</v>
       </c>
       <c r="C7">
-        <v>0.856783793760826</v>
+        <v>0.1072638382013054</v>
       </c>
       <c r="D7">
-        <v>0.2578398885763988</v>
+        <v>0.1096605338930949</v>
       </c>
       <c r="E7">
-        <v>1.136416892277936</v>
+        <v>0.03473752984215572</v>
       </c>
       <c r="F7">
-        <v>5.202858922663637</v>
+        <v>2.336975449523251</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.76811762328353</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8103043268793328</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2309445418992908</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.710173144604994</v>
+        <v>0.9502143891780293</v>
       </c>
       <c r="C8">
-        <v>1.067026413432558</v>
+        <v>0.1309022341944939</v>
       </c>
       <c r="D8">
-        <v>0.3108795245658484</v>
+        <v>0.110138685214217</v>
       </c>
       <c r="E8">
-        <v>1.426303381906834</v>
+        <v>0.03841384723799735</v>
       </c>
       <c r="F8">
-        <v>6.327722628874312</v>
+        <v>2.599562534824969</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.927969258911006</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9862458918172479</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2718711708797201</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.265612434942454</v>
+        <v>1.284257165963908</v>
       </c>
       <c r="C9">
-        <v>1.519464088145753</v>
+        <v>0.1787130324923822</v>
       </c>
       <c r="D9">
-        <v>0.4262493254933304</v>
+        <v>0.1111259660431294</v>
       </c>
       <c r="E9">
-        <v>2.063029095768655</v>
+        <v>0.04607900850664493</v>
       </c>
       <c r="F9">
-        <v>8.750478421224301</v>
+        <v>3.143014371098161</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.260162891104613</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.344165502438671</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3558666557769783</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.544014937011752</v>
+        <v>1.540348511336475</v>
       </c>
       <c r="C10">
-        <v>1.895328471866094</v>
+        <v>0.2152000681277428</v>
       </c>
       <c r="D10">
-        <v>0.5229169158366176</v>
+        <v>0.1119043272925495</v>
       </c>
       <c r="E10">
-        <v>2.605783700959009</v>
+        <v>0.05205892635342835</v>
       </c>
       <c r="F10">
-        <v>10.75424082456163</v>
+        <v>3.565117904569661</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.519073611366025</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.618179108173308</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4206322322934284</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.17387196350262</v>
+        <v>1.659895711571409</v>
       </c>
       <c r="C11">
-        <v>2.082108635262387</v>
+        <v>0.2322140500843233</v>
       </c>
       <c r="D11">
-        <v>0.5711190794094421</v>
+        <v>0.1122756918719006</v>
       </c>
       <c r="E11">
-        <v>2.880487308587135</v>
+        <v>0.05487250897702722</v>
       </c>
       <c r="F11">
-        <v>11.74426785788381</v>
+        <v>3.763462163184727</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.640940796275942</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.746036091220049</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4509530010412988</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.421644431583275</v>
+        <v>1.705671810514502</v>
       </c>
       <c r="C12">
-        <v>2.155900022332446</v>
+        <v>0.2387278985635533</v>
       </c>
       <c r="D12">
-        <v>0.5901816606653654</v>
+        <v>0.1124193511548839</v>
       </c>
       <c r="E12">
-        <v>2.989983930174816</v>
+        <v>0.05595298190256415</v>
       </c>
       <c r="F12">
-        <v>12.13409822220427</v>
+        <v>3.839606929892312</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.687756573015022</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.794988501950883</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4625762743473416</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.367823890402349</v>
+        <v>1.695789438806713</v>
       </c>
       <c r="C13">
-        <v>2.139855567028064</v>
+        <v>0.2373216729882017</v>
       </c>
       <c r="D13">
-        <v>0.5860361389524655</v>
+        <v>0.1123882673199788</v>
       </c>
       <c r="E13">
-        <v>2.966128155602036</v>
+        <v>0.05571958668734922</v>
       </c>
       <c r="F13">
-        <v>12.04940447598301</v>
+        <v>3.823159551844157</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.677642918349861</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.784420617948285</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4600663953445121</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.194054377950522</v>
+        <v>1.663651180222018</v>
       </c>
       <c r="C14">
-        <v>2.08811249704496</v>
+        <v>0.2327484558928603</v>
       </c>
       <c r="D14">
-        <v>0.5726697167179964</v>
+        <v>0.1122874466861603</v>
       </c>
       <c r="E14">
-        <v>2.889375306820199</v>
+        <v>0.05496108904235442</v>
       </c>
       <c r="F14">
-        <v>11.77601453255409</v>
+        <v>3.769705101412313</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.644778497631407</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.750052240826932</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.451906309605036</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.088904821412029</v>
+        <v>1.644033621785894</v>
       </c>
       <c r="C15">
-        <v>2.056845769326799</v>
+        <v>0.2299568333019977</v>
       </c>
       <c r="D15">
-        <v>0.5645950867805141</v>
+        <v>0.1122261032693999</v>
       </c>
       <c r="E15">
-        <v>2.84312885779687</v>
+        <v>0.05449849557171405</v>
       </c>
       <c r="F15">
-        <v>11.61063028757553</v>
+        <v>3.737101620328929</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.624737504544214</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.729072745550354</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4469270109527201</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.504003525449036</v>
+        <v>1.532602802742929</v>
       </c>
       <c r="C16">
-        <v>1.883500865547148</v>
+        <v>0.2140974623472403</v>
       </c>
       <c r="D16">
-        <v>0.5198674745138305</v>
+        <v>0.1118804507654225</v>
       </c>
       <c r="E16">
-        <v>2.588503621290798</v>
+        <v>0.05187706360040423</v>
       </c>
       <c r="F16">
-        <v>10.69140251426273</v>
+        <v>3.552293445535014</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.511198160468624</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.609894072844327</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4186694696618076</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.158959707978056</v>
+        <v>1.465070564153706</v>
       </c>
       <c r="C17">
-        <v>1.78168208709593</v>
+        <v>0.204482345357647</v>
       </c>
       <c r="D17">
-        <v>0.4936334766608752</v>
+        <v>0.1116731996811744</v>
       </c>
       <c r="E17">
-        <v>2.440298193353655</v>
+        <v>0.05029389083324887</v>
       </c>
       <c r="F17">
-        <v>10.14980673568218</v>
+        <v>3.440625806118817</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.442646300103846</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.537653682654678</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4015664883309711</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.964870503361681</v>
+        <v>1.42651042096287</v>
       </c>
       <c r="C18">
-        <v>1.724545184918327</v>
+        <v>0.1989903813662579</v>
       </c>
       <c r="D18">
-        <v>0.4789269749356322</v>
+        <v>0.111555584930251</v>
       </c>
       <c r="E18">
-        <v>2.357557198201349</v>
+        <v>0.04939196629346299</v>
       </c>
       <c r="F18">
-        <v>9.845408758620749</v>
+        <v>3.376984765339927</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.403596568573079</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.496399831234982</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3918089336596466</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.899848177217564</v>
+        <v>1.413501218296034</v>
       </c>
       <c r="C19">
-        <v>1.705425019203403</v>
+        <v>0.1971371702765481</v>
       </c>
       <c r="D19">
-        <v>0.4740082858556889</v>
+        <v>0.1115160201776106</v>
       </c>
       <c r="E19">
-        <v>2.329936379577063</v>
+        <v>0.04908803347716884</v>
       </c>
       <c r="F19">
-        <v>9.743475328211474</v>
+        <v>3.355534231294655</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.390437890313933</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.482480840430611</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3885183524299549</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.195223673441546</v>
+        <v>1.472229770728575</v>
       </c>
       <c r="C20">
-        <v>1.792368411244809</v>
+        <v>0.2055018398455815</v>
       </c>
       <c r="D20">
-        <v>0.4963852983870254</v>
+        <v>0.1116950935415488</v>
       </c>
       <c r="E20">
-        <v>2.455807017030551</v>
+        <v>0.05046151332265936</v>
       </c>
       <c r="F20">
-        <v>10.20670192538603</v>
+        <v>3.452451369245381</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.449903938139414</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.545312552280279</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4033787645418698</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.244820566280396</v>
+        <v>1.673076652175467</v>
       </c>
       <c r="C21">
-        <v>2.103219748299239</v>
+        <v>0.2340896970204511</v>
       </c>
       <c r="D21">
-        <v>0.5765718000771471</v>
+        <v>0.1123169731922999</v>
       </c>
       <c r="E21">
-        <v>2.91175609398968</v>
+        <v>0.05518345654421353</v>
       </c>
       <c r="F21">
-        <v>11.85587483858478</v>
+        <v>3.785376774729912</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.654412786517426</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.760131889604878</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4542991322529844</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.986573740760207</v>
+        <v>1.807329064752423</v>
       </c>
       <c r="C22">
-        <v>2.324852423174207</v>
+        <v>0.2531936906299421</v>
       </c>
       <c r="D22">
-        <v>0.6338543903200389</v>
+        <v>0.1127413809329241</v>
       </c>
       <c r="E22">
-        <v>3.242854261593649</v>
+        <v>0.05835800441457195</v>
       </c>
       <c r="F22">
-        <v>13.02354365974952</v>
+        <v>4.009070890395918</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.792004198395006</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.903692426650593</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4884128806942982</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.584561878587124</v>
+        <v>1.735378318043161</v>
       </c>
       <c r="C23">
-        <v>2.204521223114284</v>
+        <v>0.2429550189551719</v>
       </c>
       <c r="D23">
-        <v>0.6027465007995261</v>
+        <v>0.1125130237323262</v>
       </c>
       <c r="E23">
-        <v>3.062441503718503</v>
+        <v>0.05665501250858185</v>
       </c>
       <c r="F23">
-        <v>12.39051988212765</v>
+        <v>3.889076811984296</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.718180580828516</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.826755069716029</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4701229124692645</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.178815561461988</v>
+        <v>1.468992272907798</v>
       </c>
       <c r="C24">
-        <v>1.787532818178875</v>
+        <v>0.2050408154148613</v>
       </c>
       <c r="D24">
-        <v>0.4951400433991182</v>
+        <v>0.1116851905819622</v>
       </c>
       <c r="E24">
-        <v>2.448787904000696</v>
+        <v>0.0503857055790391</v>
       </c>
       <c r="F24">
-        <v>10.18095814634879</v>
+        <v>3.447103302943333</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.446621639441886</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.541849116601014</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4025592016422195</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.826028893508067</v>
+        <v>1.192242619953305</v>
       </c>
       <c r="C25">
-        <v>1.391116050906419</v>
+        <v>0.1655771722113712</v>
       </c>
       <c r="D25">
-        <v>0.3933856390596731</v>
+        <v>0.1108513585674444</v>
       </c>
       <c r="E25">
-        <v>1.880604580108368</v>
+        <v>0.04394969355209</v>
       </c>
       <c r="F25">
-        <v>8.063775557493216</v>
+        <v>2.992412090599572</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.167956128921617</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.245647776365388</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3326678645093324</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.99537212182085</v>
+        <v>0.78016879002368</v>
       </c>
       <c r="C2">
-        <v>0.1373896819638958</v>
+        <v>0.0416085903975727</v>
       </c>
       <c r="D2">
-        <v>0.1102708329160293</v>
+        <v>0.1433421750881294</v>
       </c>
       <c r="E2">
-        <v>0.03943840680648059</v>
+        <v>0.06113185119997766</v>
       </c>
       <c r="F2">
-        <v>2.672455984771148</v>
+        <v>2.630708748447375</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.97243183098854</v>
+        <v>2.147253301571425</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.03468255659601</v>
+        <v>0.6164355302456386</v>
       </c>
       <c r="L2">
-        <v>0.2831869899105044</v>
+        <v>0.2456817495573063</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8652978625927119</v>
+        <v>0.754189425547878</v>
       </c>
       <c r="C3">
-        <v>0.1186730373222531</v>
+        <v>0.03620255580442233</v>
       </c>
       <c r="D3">
-        <v>0.1098907612133289</v>
+        <v>0.1426570395147166</v>
       </c>
       <c r="E3">
-        <v>0.03649973709187826</v>
+        <v>0.0606836595636544</v>
       </c>
       <c r="F3">
-        <v>2.463072915715884</v>
+        <v>2.577096267988665</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.844813092031075</v>
+        <v>2.114043808880012</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8951025098831167</v>
+        <v>0.5853739611381172</v>
       </c>
       <c r="L3">
-        <v>0.2506323633887462</v>
+        <v>0.238526883287733</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.786801798707728</v>
+        <v>0.7388538796103887</v>
       </c>
       <c r="C4">
-        <v>0.1073259060489988</v>
+        <v>0.03288011789024381</v>
       </c>
       <c r="D4">
-        <v>0.1096617843468479</v>
+        <v>0.1422241723565563</v>
       </c>
       <c r="E4">
-        <v>0.03474704728526667</v>
+        <v>0.06043441177345876</v>
       </c>
       <c r="F4">
-        <v>2.33765782561747</v>
+        <v>2.545016477067875</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.768532288197761</v>
+        <v>2.094205655803293</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8107649303888422</v>
+        <v>0.5667910953249873</v>
       </c>
       <c r="L4">
-        <v>0.2310512718310207</v>
+        <v>0.2342796997542109</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7551205542820583</v>
+        <v>0.7327593670989927</v>
       </c>
       <c r="C5">
-        <v>0.102732149848876</v>
+        <v>0.03152531484499832</v>
       </c>
       <c r="D5">
-        <v>0.1095692770165719</v>
+        <v>0.1420446831963744</v>
       </c>
       <c r="E5">
-        <v>0.03404487004883983</v>
+        <v>0.06033936952589869</v>
       </c>
       <c r="F5">
-        <v>2.28726944626645</v>
+        <v>2.532153828972497</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.737924179225118</v>
+        <v>2.086259911447911</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7766982234459192</v>
+        <v>0.5593412042660191</v>
       </c>
       <c r="L5">
-        <v>0.2231640883284456</v>
+        <v>0.2325855804218264</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7498773640371326</v>
+        <v>0.7317567298548511</v>
       </c>
       <c r="C6">
-        <v>0.1019710183589524</v>
+        <v>0.03130029460452022</v>
       </c>
       <c r="D6">
-        <v>0.1095539563251329</v>
+        <v>0.1420146916063523</v>
       </c>
       <c r="E6">
-        <v>0.03392897624758717</v>
+        <v>0.06032398226010471</v>
       </c>
       <c r="F6">
-        <v>2.278943925900535</v>
+        <v>2.530030666377584</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.732869261137537</v>
+        <v>2.084948875163704</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7710585227363822</v>
+        <v>0.5581115653199618</v>
       </c>
       <c r="L6">
-        <v>0.2218597153143804</v>
+        <v>0.2323064847839049</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7863733413872751</v>
+        <v>0.7387710599409161</v>
       </c>
       <c r="C7">
-        <v>0.1072638382013054</v>
+        <v>0.03286185024863642</v>
       </c>
       <c r="D7">
-        <v>0.1096605338930949</v>
+        <v>0.1422217642593075</v>
       </c>
       <c r="E7">
-        <v>0.03473752984215572</v>
+        <v>0.06043310356152176</v>
       </c>
       <c r="F7">
-        <v>2.336975449523251</v>
+        <v>2.544842157063783</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.76811762328353</v>
+        <v>2.094097936746337</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8103043268793328</v>
+        <v>0.5666901266277193</v>
       </c>
       <c r="L7">
-        <v>0.2309445418992908</v>
+        <v>0.2342567039734718</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9502143891780293</v>
+        <v>0.7710832498189859</v>
       </c>
       <c r="C8">
-        <v>0.1309022341944939</v>
+        <v>0.03974517324292037</v>
       </c>
       <c r="D8">
-        <v>0.110138685214217</v>
+        <v>0.1431084544871233</v>
       </c>
       <c r="E8">
-        <v>0.03841384723799735</v>
+        <v>0.0609719324907374</v>
       </c>
       <c r="F8">
-        <v>2.599562534824969</v>
+        <v>2.612048684312441</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.927969258911006</v>
+        <v>2.135687664364198</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9862458918172479</v>
+        <v>0.6056238609952516</v>
       </c>
       <c r="L8">
-        <v>0.2718711708797201</v>
+        <v>0.2431844276394912</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.284257165963908</v>
+        <v>0.839340416755249</v>
       </c>
       <c r="C9">
-        <v>0.1787130324923822</v>
+        <v>0.05322382392665759</v>
       </c>
       <c r="D9">
-        <v>0.1111259660431294</v>
+        <v>0.1447517514735388</v>
       </c>
       <c r="E9">
-        <v>0.04607900850664493</v>
+        <v>0.06223435567550339</v>
       </c>
       <c r="F9">
-        <v>3.143014371098161</v>
+        <v>2.750534342411299</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>2.260162891104613</v>
+        <v>2.221657233728891</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.344165502438671</v>
+        <v>0.6858677430425359</v>
       </c>
       <c r="L9">
-        <v>0.3558666557769783</v>
+        <v>0.261853296654138</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.540348511336475</v>
+        <v>0.892488089071179</v>
       </c>
       <c r="C10">
-        <v>0.2152000681277428</v>
+        <v>0.06312273449911743</v>
       </c>
       <c r="D10">
-        <v>0.1119043272925495</v>
+        <v>0.1459026043700362</v>
       </c>
       <c r="E10">
-        <v>0.05205892635342835</v>
+        <v>0.06328740268803301</v>
       </c>
       <c r="F10">
-        <v>3.565117904569661</v>
+        <v>2.856429242130048</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>2.519073611366025</v>
+        <v>2.287554572073915</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.618179108173308</v>
+        <v>0.7472251482338947</v>
       </c>
       <c r="L10">
-        <v>0.4206322322934284</v>
+        <v>0.2762844874468158</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.659895711571409</v>
+        <v>0.9173216697803639</v>
       </c>
       <c r="C11">
-        <v>0.2322140500843233</v>
+        <v>0.06762696470323704</v>
       </c>
       <c r="D11">
-        <v>0.1122756918719006</v>
+        <v>0.1464142668619246</v>
       </c>
       <c r="E11">
-        <v>0.05487250897702722</v>
+        <v>0.06379375755386008</v>
       </c>
       <c r="F11">
-        <v>3.763462163184727</v>
+        <v>2.905520194086677</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.640940796275942</v>
+        <v>2.318137281930532</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.746036091220049</v>
+        <v>0.7756664249608036</v>
       </c>
       <c r="L11">
-        <v>0.4509530010412988</v>
+        <v>0.2830065516543101</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.705671810514502</v>
+        <v>0.9268200931945501</v>
       </c>
       <c r="C12">
-        <v>0.2387278985635533</v>
+        <v>0.06933289356206274</v>
       </c>
       <c r="D12">
-        <v>0.1124193511548839</v>
+        <v>0.1466063422332979</v>
       </c>
       <c r="E12">
-        <v>0.05595298190256415</v>
+        <v>0.06398942885915204</v>
       </c>
       <c r="F12">
-        <v>3.839606929892312</v>
+        <v>2.924242794660472</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.687756573015022</v>
+        <v>2.329805929395675</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.794988501950883</v>
+        <v>0.7865129249301503</v>
       </c>
       <c r="L12">
-        <v>0.4625762743473416</v>
+        <v>0.2855747316202724</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.695789438806713</v>
+        <v>0.924770233963045</v>
       </c>
       <c r="C13">
-        <v>0.2373216729882017</v>
+        <v>0.06896547733187219</v>
       </c>
       <c r="D13">
-        <v>0.1123882673199788</v>
+        <v>0.1465650496718425</v>
       </c>
       <c r="E13">
-        <v>0.05571958668734922</v>
+        <v>0.06394711298622013</v>
       </c>
       <c r="F13">
-        <v>3.823159551844157</v>
+        <v>2.920204623134794</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.677642918349861</v>
+        <v>2.327288970937957</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.784420617948285</v>
+        <v>0.7841735345880068</v>
       </c>
       <c r="L13">
-        <v>0.4600663953445121</v>
+        <v>0.2850206182951496</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.663651180222018</v>
+        <v>0.9181012166129108</v>
       </c>
       <c r="C14">
-        <v>0.2327484558928603</v>
+        <v>0.06776730637680828</v>
       </c>
       <c r="D14">
-        <v>0.1122874466861603</v>
+        <v>0.1464301025402008</v>
       </c>
       <c r="E14">
-        <v>0.05496108904235442</v>
+        <v>0.06380977688749923</v>
       </c>
       <c r="F14">
-        <v>3.769705101412313</v>
+        <v>2.907057845161461</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.644778497631407</v>
+        <v>2.319095509045155</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.750052240826932</v>
+        <v>0.7765572401980592</v>
       </c>
       <c r="L14">
-        <v>0.451906309605036</v>
+        <v>0.2832173824211708</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.644033621785894</v>
+        <v>0.9140285585467325</v>
       </c>
       <c r="C15">
-        <v>0.2299568333019977</v>
+        <v>0.06703343102664405</v>
       </c>
       <c r="D15">
-        <v>0.1122261032693999</v>
+        <v>0.146347225503046</v>
       </c>
       <c r="E15">
-        <v>0.05449849557171405</v>
+        <v>0.06372616572866363</v>
       </c>
       <c r="F15">
-        <v>3.737101620328929</v>
+        <v>2.899022398192614</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.624737504544214</v>
+        <v>2.31408820639686</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.729072745550354</v>
+        <v>0.7719019983123019</v>
       </c>
       <c r="L15">
-        <v>0.4469270109527201</v>
+        <v>0.2821158040760423</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.532602802742929</v>
+        <v>0.8908783728921321</v>
       </c>
       <c r="C16">
-        <v>0.2140974623472403</v>
+        <v>0.06282840504803744</v>
       </c>
       <c r="D16">
-        <v>0.1118804507654225</v>
+        <v>0.14586892948914</v>
       </c>
       <c r="E16">
-        <v>0.05187706360040423</v>
+        <v>0.06325486069341935</v>
       </c>
       <c r="F16">
-        <v>3.552293445535014</v>
+        <v>2.853239590081273</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>2.511198160468624</v>
+        <v>2.285568154236429</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.609894072844327</v>
+        <v>0.7453771210736306</v>
       </c>
       <c r="L16">
-        <v>0.4186694696618076</v>
+        <v>0.275848354715464</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.465070564153706</v>
+        <v>0.8768446746982193</v>
       </c>
       <c r="C17">
-        <v>0.204482345357647</v>
+        <v>0.06024913228154105</v>
       </c>
       <c r="D17">
-        <v>0.1116731996811744</v>
+        <v>0.1455724898620403</v>
       </c>
       <c r="E17">
-        <v>0.05029389083324887</v>
+        <v>0.06297272529240416</v>
       </c>
       <c r="F17">
-        <v>3.440625806118817</v>
+        <v>2.825389219166141</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>2.442646300103846</v>
+        <v>2.268227540585656</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.537653682654678</v>
+        <v>0.7292407685752096</v>
       </c>
       <c r="L17">
-        <v>0.4015664883309711</v>
+        <v>0.272043799660679</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.42651042096287</v>
+        <v>0.868834643755207</v>
       </c>
       <c r="C18">
-        <v>0.1989903813662579</v>
+        <v>0.0587657061134621</v>
       </c>
       <c r="D18">
-        <v>0.111555584930251</v>
+        <v>0.1454008671595055</v>
       </c>
       <c r="E18">
-        <v>0.04939196629346299</v>
+        <v>0.06281301996665789</v>
       </c>
       <c r="F18">
-        <v>3.376984765339927</v>
+        <v>2.809456859245699</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>2.403596568573079</v>
+        <v>2.2583106551225</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.496399831234982</v>
+        <v>0.7200093865928068</v>
       </c>
       <c r="L18">
-        <v>0.3918089336596466</v>
+        <v>0.2698703164732876</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.413501218296034</v>
+        <v>0.8661331932642895</v>
       </c>
       <c r="C19">
-        <v>0.1971371702765481</v>
+        <v>0.05826345800288379</v>
       </c>
       <c r="D19">
-        <v>0.1115160201776106</v>
+        <v>0.1453425657617338</v>
       </c>
       <c r="E19">
-        <v>0.04908803347716884</v>
+        <v>0.06275938822795268</v>
       </c>
       <c r="F19">
-        <v>3.355534231294655</v>
+        <v>2.804077257378367</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>2.390437890313933</v>
+        <v>2.254962737428784</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.482480840430611</v>
+        <v>0.7168923481371507</v>
       </c>
       <c r="L19">
-        <v>0.3885183524299549</v>
+        <v>0.2691369516148825</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.472229770728575</v>
+        <v>0.878332191103965</v>
       </c>
       <c r="C20">
-        <v>0.2055018398455815</v>
+        <v>0.06052368880403947</v>
       </c>
       <c r="D20">
-        <v>0.1116950935415488</v>
+        <v>0.1456041619338535</v>
       </c>
       <c r="E20">
-        <v>0.05046151332265936</v>
+        <v>0.06300249296715421</v>
       </c>
       <c r="F20">
-        <v>3.452451369245381</v>
+        <v>2.828344987096415</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>2.449903938139414</v>
+        <v>2.270067577721733</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.545312552280279</v>
+        <v>0.7309533526448888</v>
       </c>
       <c r="L20">
-        <v>0.4033787645418698</v>
+        <v>0.2724472691912467</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.673076652175467</v>
+        <v>0.9200575035957286</v>
       </c>
       <c r="C21">
-        <v>0.2340896970204511</v>
+        <v>0.06811922991884956</v>
       </c>
       <c r="D21">
-        <v>0.1123169731922999</v>
+        <v>0.1464697851734371</v>
       </c>
       <c r="E21">
-        <v>0.05518345654421353</v>
+        <v>0.0638500093065737</v>
       </c>
       <c r="F21">
-        <v>3.785376774729912</v>
+        <v>2.910915758685007</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.654412786517426</v>
+        <v>2.321499744576869</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.760131889604878</v>
+        <v>0.7787922546839923</v>
       </c>
       <c r="L21">
-        <v>0.4542991322529844</v>
+        <v>0.2837464204200018</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.807329064752423</v>
+        <v>0.9478781889637276</v>
       </c>
       <c r="C22">
-        <v>0.2531936906299421</v>
+        <v>0.07308500623241798</v>
       </c>
       <c r="D22">
-        <v>0.1127413809329241</v>
+        <v>0.1470257391166498</v>
       </c>
       <c r="E22">
-        <v>0.05835800441457195</v>
+        <v>0.06442679114836025</v>
       </c>
       <c r="F22">
-        <v>4.009070890395918</v>
+        <v>2.965655678686005</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.792004198395006</v>
+        <v>2.355624719915269</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.903692426650593</v>
+        <v>0.8105032238775038</v>
       </c>
       <c r="L22">
-        <v>0.4884128806942982</v>
+        <v>0.2912632992868822</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.735378318043161</v>
+        <v>0.9329793367512877</v>
       </c>
       <c r="C23">
-        <v>0.2429550189551719</v>
+        <v>0.07043449129045598</v>
       </c>
       <c r="D23">
-        <v>0.1125130237323262</v>
+        <v>0.1467299023511686</v>
       </c>
       <c r="E23">
-        <v>0.05665501250858185</v>
+        <v>0.0641168590492569</v>
       </c>
       <c r="F23">
-        <v>3.889076811984296</v>
+        <v>2.93636876267874</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.718180580828516</v>
+        <v>2.337364634249909</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.826755069716029</v>
+        <v>0.7935376308480215</v>
       </c>
       <c r="L23">
-        <v>0.4701229124692645</v>
+        <v>0.2872392773049199</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.468992272907798</v>
+        <v>0.8776595038806079</v>
       </c>
       <c r="C24">
-        <v>0.2050408154148613</v>
+        <v>0.0603995635784571</v>
       </c>
       <c r="D24">
-        <v>0.1116851905819622</v>
+        <v>0.1455898467156516</v>
       </c>
       <c r="E24">
-        <v>0.0503857055790391</v>
+        <v>0.06298902722027577</v>
       </c>
       <c r="F24">
-        <v>3.447103302943333</v>
+        <v>2.827008437802931</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>2.446621639441886</v>
+        <v>2.26923553354689</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.541849116601014</v>
+        <v>0.7301789513032588</v>
       </c>
       <c r="L24">
-        <v>0.4025592016422195</v>
+        <v>0.2722648176187619</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.192242619953305</v>
+        <v>0.8203495690272575</v>
       </c>
       <c r="C25">
-        <v>0.1655771722113712</v>
+        <v>0.04957875338688211</v>
       </c>
       <c r="D25">
-        <v>0.1108513585674444</v>
+        <v>0.1443172394085011</v>
       </c>
       <c r="E25">
-        <v>0.04394969355209</v>
+        <v>0.06187079730118583</v>
       </c>
       <c r="F25">
-        <v>2.992412090599572</v>
+        <v>2.712346594024012</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>2.167956128921617</v>
+        <v>2.197923114728653</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.245647776365388</v>
+        <v>0.6637398292863281</v>
       </c>
       <c r="L25">
-        <v>0.3326678645093324</v>
+        <v>0.2566777937795592</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.78016879002368</v>
+        <v>0.9953721218207932</v>
       </c>
       <c r="C2">
-        <v>0.0416085903975727</v>
+        <v>0.13738968196391</v>
       </c>
       <c r="D2">
-        <v>0.1433421750881294</v>
+        <v>0.110270832915905</v>
       </c>
       <c r="E2">
-        <v>0.06113185119997766</v>
+        <v>0.03943840680650545</v>
       </c>
       <c r="F2">
-        <v>2.630708748447375</v>
+        <v>2.672455984771176</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>2.147253301571425</v>
+        <v>1.972431830988569</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6164355302456386</v>
+        <v>1.03468255659601</v>
       </c>
       <c r="L2">
-        <v>0.2456817495573063</v>
+        <v>0.283186989910476</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.754189425547878</v>
+        <v>0.8652978625925698</v>
       </c>
       <c r="C3">
-        <v>0.03620255580442233</v>
+        <v>0.1186730373222673</v>
       </c>
       <c r="D3">
-        <v>0.1426570395147166</v>
+        <v>0.1098907612130873</v>
       </c>
       <c r="E3">
-        <v>0.0606836595636544</v>
+        <v>0.03649973709187648</v>
       </c>
       <c r="F3">
-        <v>2.577096267988665</v>
+        <v>2.463072915715898</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.114043808880012</v>
+        <v>1.84481309203106</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5853739611381172</v>
+        <v>0.8951025098830883</v>
       </c>
       <c r="L3">
-        <v>0.238526883287733</v>
+        <v>0.2506323633886183</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7388538796103887</v>
+        <v>0.7868017987075859</v>
       </c>
       <c r="C4">
-        <v>0.03288011789024381</v>
+        <v>0.1073259060488141</v>
       </c>
       <c r="D4">
-        <v>0.1422241723565563</v>
+        <v>0.1096617843468444</v>
       </c>
       <c r="E4">
-        <v>0.06043441177345876</v>
+        <v>0.03474704728522227</v>
       </c>
       <c r="F4">
-        <v>2.545016477067875</v>
+        <v>2.337657825617455</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.094205655803293</v>
+        <v>1.768532288197761</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5667910953249873</v>
+        <v>0.8107649303889275</v>
       </c>
       <c r="L4">
-        <v>0.2342796997542109</v>
+        <v>0.2310512718310633</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7327593670989927</v>
+        <v>0.7551205542820014</v>
       </c>
       <c r="C5">
-        <v>0.03152531484499832</v>
+        <v>0.1027321498488476</v>
       </c>
       <c r="D5">
-        <v>0.1420446831963744</v>
+        <v>0.1095692770163623</v>
       </c>
       <c r="E5">
-        <v>0.06033936952589869</v>
+        <v>0.03404487004883094</v>
       </c>
       <c r="F5">
-        <v>2.532153828972497</v>
+        <v>2.287269446266436</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.086259911447911</v>
+        <v>1.737924179225132</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5593412042660191</v>
+        <v>0.7766982234459192</v>
       </c>
       <c r="L5">
-        <v>0.2325855804218264</v>
+        <v>0.2231640883285593</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7317567298548511</v>
+        <v>0.749877364036962</v>
       </c>
       <c r="C6">
-        <v>0.03130029460452022</v>
+        <v>0.1019710183587392</v>
       </c>
       <c r="D6">
-        <v>0.1420146916063523</v>
+        <v>0.1095539563250156</v>
       </c>
       <c r="E6">
-        <v>0.06032398226010471</v>
+        <v>0.03392897624760849</v>
       </c>
       <c r="F6">
-        <v>2.530030666377584</v>
+        <v>2.278943925900549</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.084948875163704</v>
+        <v>1.732869261137552</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5581115653199618</v>
+        <v>0.7710585227363822</v>
       </c>
       <c r="L6">
-        <v>0.2323064847839049</v>
+        <v>0.2218597153143946</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7387710599409161</v>
+        <v>0.7863733413873035</v>
       </c>
       <c r="C7">
-        <v>0.03286185024863642</v>
+        <v>0.1072638382013622</v>
       </c>
       <c r="D7">
-        <v>0.1422217642593075</v>
+        <v>0.1096605338931091</v>
       </c>
       <c r="E7">
-        <v>0.06043310356152176</v>
+        <v>0.0347375298421575</v>
       </c>
       <c r="F7">
-        <v>2.544842157063783</v>
+        <v>2.336975449523237</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.094097936746337</v>
+        <v>1.768117623283516</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5666901266277193</v>
+        <v>0.8103043268791907</v>
       </c>
       <c r="L7">
-        <v>0.2342567039734718</v>
+        <v>0.2309445418993761</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7710832498189859</v>
+        <v>0.9502143891780861</v>
       </c>
       <c r="C8">
-        <v>0.03974517324292037</v>
+        <v>0.1309022341947355</v>
       </c>
       <c r="D8">
-        <v>0.1431084544871233</v>
+        <v>0.1101386852139861</v>
       </c>
       <c r="E8">
-        <v>0.0609719324907374</v>
+        <v>0.03841384723799912</v>
       </c>
       <c r="F8">
-        <v>2.612048684312441</v>
+        <v>2.59956253482494</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.135687664364198</v>
+        <v>1.927969258911006</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6056238609952516</v>
+        <v>0.9862458918172479</v>
       </c>
       <c r="L8">
-        <v>0.2431844276394912</v>
+        <v>0.2718711708796917</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.839340416755249</v>
+        <v>1.284257165964021</v>
       </c>
       <c r="C9">
-        <v>0.05322382392665759</v>
+        <v>0.1787130324923965</v>
       </c>
       <c r="D9">
-        <v>0.1447517514735388</v>
+        <v>0.1111259660431081</v>
       </c>
       <c r="E9">
-        <v>0.06223435567550339</v>
+        <v>0.04607900850666624</v>
       </c>
       <c r="F9">
-        <v>2.750534342411299</v>
+        <v>3.143014371098161</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.221657233728891</v>
+        <v>2.260162891104628</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6858677430425359</v>
+        <v>1.344165502438642</v>
       </c>
       <c r="L9">
-        <v>0.261853296654138</v>
+        <v>0.3558666557769072</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.892488089071179</v>
+        <v>1.54034851133656</v>
       </c>
       <c r="C10">
-        <v>0.06312273449911743</v>
+        <v>0.2152000681282686</v>
       </c>
       <c r="D10">
-        <v>0.1459026043700362</v>
+        <v>0.1119043272924216</v>
       </c>
       <c r="E10">
-        <v>0.06328740268803301</v>
+        <v>0.05205892635346387</v>
       </c>
       <c r="F10">
-        <v>2.856429242130048</v>
+        <v>3.565117904569718</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.287554572073915</v>
+        <v>2.519073611366039</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7472251482338947</v>
+        <v>1.618179108173308</v>
       </c>
       <c r="L10">
-        <v>0.2762844874468158</v>
+        <v>0.4206322322934284</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9173216697803639</v>
+        <v>1.659895711571352</v>
       </c>
       <c r="C11">
-        <v>0.06762696470323704</v>
+        <v>0.2322140500846359</v>
       </c>
       <c r="D11">
-        <v>0.1464142668619246</v>
+        <v>0.1122756918721066</v>
       </c>
       <c r="E11">
-        <v>0.06379375755386008</v>
+        <v>0.05487250897701657</v>
       </c>
       <c r="F11">
-        <v>2.905520194086677</v>
+        <v>3.763462163184755</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.318137281930532</v>
+        <v>2.640940796275956</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7756664249608036</v>
+        <v>1.746036091219992</v>
       </c>
       <c r="L11">
-        <v>0.2830065516543101</v>
+        <v>0.450953001041313</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9268200931945501</v>
+        <v>1.705671810514218</v>
       </c>
       <c r="C12">
-        <v>0.06933289356206274</v>
+        <v>0.2387278985640648</v>
       </c>
       <c r="D12">
-        <v>0.1466063422332979</v>
+        <v>0.1124193511547418</v>
       </c>
       <c r="E12">
-        <v>0.06398942885915204</v>
+        <v>0.05595298190256415</v>
       </c>
       <c r="F12">
-        <v>2.924242794660472</v>
+        <v>3.839606929892284</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.329805929395675</v>
+        <v>2.687756573015065</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7865129249301503</v>
+        <v>1.794988501950911</v>
       </c>
       <c r="L12">
-        <v>0.2855747316202724</v>
+        <v>0.462576274347029</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.924770233963045</v>
+        <v>1.695789438806742</v>
       </c>
       <c r="C13">
-        <v>0.06896547733187219</v>
+        <v>0.2373216729881875</v>
       </c>
       <c r="D13">
-        <v>0.1465650496718425</v>
+        <v>0.1123882673193677</v>
       </c>
       <c r="E13">
-        <v>0.06394711298622013</v>
+        <v>0.05571958668734922</v>
       </c>
       <c r="F13">
-        <v>2.920204623134794</v>
+        <v>3.823159551844185</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.327288970937957</v>
+        <v>2.677642918349861</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7841735345880068</v>
+        <v>1.784420617948143</v>
       </c>
       <c r="L13">
-        <v>0.2850206182951496</v>
+        <v>0.4600663953443984</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9181012166129108</v>
+        <v>1.663651180222047</v>
       </c>
       <c r="C14">
-        <v>0.06776730637680828</v>
+        <v>0.2327484558928461</v>
       </c>
       <c r="D14">
-        <v>0.1464301025402008</v>
+        <v>0.1122874466859258</v>
       </c>
       <c r="E14">
-        <v>0.06380977688749923</v>
+        <v>0.05496108904236507</v>
       </c>
       <c r="F14">
-        <v>2.907057845161461</v>
+        <v>3.769705101412313</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.319095509045155</v>
+        <v>2.644778497631421</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7765572401980592</v>
+        <v>1.750052240826903</v>
       </c>
       <c r="L14">
-        <v>0.2832173824211708</v>
+        <v>0.4519063096051354</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9140285585467325</v>
+        <v>1.644033621786065</v>
       </c>
       <c r="C15">
-        <v>0.06703343102664405</v>
+        <v>0.2299568333017845</v>
       </c>
       <c r="D15">
-        <v>0.146347225503046</v>
+        <v>0.1122261032691299</v>
       </c>
       <c r="E15">
-        <v>0.06372616572866363</v>
+        <v>0.05449849557175312</v>
       </c>
       <c r="F15">
-        <v>2.899022398192614</v>
+        <v>3.7371016203289</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.31408820639686</v>
+        <v>2.624737504544214</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7719019983123019</v>
+        <v>1.729072745550383</v>
       </c>
       <c r="L15">
-        <v>0.2821158040760423</v>
+        <v>0.4469270109529049</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8908783728921321</v>
+        <v>1.532602802743014</v>
       </c>
       <c r="C16">
-        <v>0.06282840504803744</v>
+        <v>0.214097462347226</v>
       </c>
       <c r="D16">
-        <v>0.14586892948914</v>
+        <v>0.1118804507653657</v>
       </c>
       <c r="E16">
-        <v>0.06325486069341935</v>
+        <v>0.05187706360038646</v>
       </c>
       <c r="F16">
-        <v>2.853239590081273</v>
+        <v>3.552293445535014</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.285568154236429</v>
+        <v>2.511198160468652</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7453771210736306</v>
+        <v>1.609894072844355</v>
       </c>
       <c r="L16">
-        <v>0.275848354715464</v>
+        <v>0.418669469661836</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8768446746982193</v>
+        <v>1.465070564153677</v>
       </c>
       <c r="C17">
-        <v>0.06024913228154105</v>
+        <v>0.2044823453578601</v>
       </c>
       <c r="D17">
-        <v>0.1455724898620403</v>
+        <v>0.1116731996813698</v>
       </c>
       <c r="E17">
-        <v>0.06297272529240416</v>
+        <v>0.05029389083316005</v>
       </c>
       <c r="F17">
-        <v>2.825389219166141</v>
+        <v>3.440625806118845</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.268227540585656</v>
+        <v>2.44264630010386</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7292407685752096</v>
+        <v>1.537653682654678</v>
       </c>
       <c r="L17">
-        <v>0.272043799660679</v>
+        <v>0.4015664883310137</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.868834643755207</v>
+        <v>1.4265104209627</v>
       </c>
       <c r="C18">
-        <v>0.0587657061134621</v>
+        <v>0.1989903813657605</v>
       </c>
       <c r="D18">
-        <v>0.1454008671595055</v>
+        <v>0.1115555849302261</v>
       </c>
       <c r="E18">
-        <v>0.06281301996665789</v>
+        <v>0.04939196629345233</v>
       </c>
       <c r="F18">
-        <v>2.809456859245699</v>
+        <v>3.376984765339984</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.2583106551225</v>
+        <v>2.403596568573079</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7200093865928068</v>
+        <v>1.49639983123501</v>
       </c>
       <c r="L18">
-        <v>0.2698703164732876</v>
+        <v>0.3918089336595898</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8661331932642895</v>
+        <v>1.413501218295949</v>
       </c>
       <c r="C19">
-        <v>0.05826345800288379</v>
+        <v>0.1971371702765339</v>
       </c>
       <c r="D19">
-        <v>0.1453425657617338</v>
+        <v>0.1115160201778522</v>
       </c>
       <c r="E19">
-        <v>0.06275938822795268</v>
+        <v>0.04908803347716528</v>
       </c>
       <c r="F19">
-        <v>2.804077257378367</v>
+        <v>3.355534231294655</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.254962737428784</v>
+        <v>2.390437890313933</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7168923481371507</v>
+        <v>1.482480840430668</v>
       </c>
       <c r="L19">
-        <v>0.2691369516148825</v>
+        <v>0.3885183524298839</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.878332191103965</v>
+        <v>1.472229770728461</v>
       </c>
       <c r="C20">
-        <v>0.06052368880403947</v>
+        <v>0.205501839845553</v>
       </c>
       <c r="D20">
-        <v>0.1456041619338535</v>
+        <v>0.1116950935418473</v>
       </c>
       <c r="E20">
-        <v>0.06300249296715421</v>
+        <v>0.05046151332263449</v>
       </c>
       <c r="F20">
-        <v>2.828344987096415</v>
+        <v>3.452451369245438</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.270067577721733</v>
+        <v>2.449903938139428</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7309533526448888</v>
+        <v>1.545312552280222</v>
       </c>
       <c r="L20">
-        <v>0.2724472691912467</v>
+        <v>0.4033787645419835</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9200575035957286</v>
+        <v>1.673076652175411</v>
       </c>
       <c r="C21">
-        <v>0.06811922991884956</v>
+        <v>0.2340896970207353</v>
       </c>
       <c r="D21">
-        <v>0.1464697851734371</v>
+        <v>0.1123169731924563</v>
       </c>
       <c r="E21">
-        <v>0.0638500093065737</v>
+        <v>0.05518345654422063</v>
       </c>
       <c r="F21">
-        <v>2.910915758685007</v>
+        <v>3.785376774729883</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.321499744576869</v>
+        <v>2.65441278651744</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7787922546839923</v>
+        <v>1.760131889604793</v>
       </c>
       <c r="L21">
-        <v>0.2837464204200018</v>
+        <v>0.4542991322529559</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9478781889637276</v>
+        <v>1.807329064752338</v>
       </c>
       <c r="C22">
-        <v>0.07308500623241798</v>
+        <v>0.2531936906296579</v>
       </c>
       <c r="D22">
-        <v>0.1470257391166498</v>
+        <v>0.1127413809331088</v>
       </c>
       <c r="E22">
-        <v>0.06442679114836025</v>
+        <v>0.05835800441458616</v>
       </c>
       <c r="F22">
-        <v>2.965655678686005</v>
+        <v>4.009070890396004</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.355624719915269</v>
+        <v>2.79200419839502</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8105032238775038</v>
+        <v>1.903692426650679</v>
       </c>
       <c r="L22">
-        <v>0.2912632992868822</v>
+        <v>0.4884128806940709</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9329793367512877</v>
+        <v>1.735378318043388</v>
       </c>
       <c r="C23">
-        <v>0.07043449129045598</v>
+        <v>0.2429550189552145</v>
       </c>
       <c r="D23">
-        <v>0.1467299023511686</v>
+        <v>0.1125130237322267</v>
       </c>
       <c r="E23">
-        <v>0.0641168590492569</v>
+        <v>0.05665501250854632</v>
       </c>
       <c r="F23">
-        <v>2.93636876267874</v>
+        <v>3.889076811984268</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.337364634249909</v>
+        <v>2.718180580828488</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7935376308480215</v>
+        <v>1.826755069716057</v>
       </c>
       <c r="L23">
-        <v>0.2872392773049199</v>
+        <v>0.4701229124692219</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8776595038806079</v>
+        <v>1.468992272907826</v>
       </c>
       <c r="C24">
-        <v>0.0603995635784571</v>
+        <v>0.2050408154148613</v>
       </c>
       <c r="D24">
-        <v>0.1455898467156516</v>
+        <v>0.1116851905817171</v>
       </c>
       <c r="E24">
-        <v>0.06298902722027577</v>
+        <v>0.05038570557906752</v>
       </c>
       <c r="F24">
-        <v>2.827008437802931</v>
+        <v>3.447103302943333</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.26923553354689</v>
+        <v>2.446621639441886</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7301789513032588</v>
+        <v>1.541849116600901</v>
       </c>
       <c r="L24">
-        <v>0.2722648176187619</v>
+        <v>0.4025592016422763</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8203495690272575</v>
+        <v>1.192242619953106</v>
       </c>
       <c r="C25">
-        <v>0.04957875338688211</v>
+        <v>0.1655771722111297</v>
       </c>
       <c r="D25">
-        <v>0.1443172394085011</v>
+        <v>0.1108513585674693</v>
       </c>
       <c r="E25">
-        <v>0.06187079730118583</v>
+        <v>0.04394969355206513</v>
       </c>
       <c r="F25">
-        <v>2.712346594024012</v>
+        <v>2.992412090599544</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.197923114728653</v>
+        <v>2.167956128921617</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6637398292863281</v>
+        <v>1.245647776365416</v>
       </c>
       <c r="L25">
-        <v>0.2566777937795592</v>
+        <v>0.3326678645092613</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9953721218207932</v>
+        <v>3.483469309552845</v>
       </c>
       <c r="C2">
-        <v>0.13738968196391</v>
+        <v>1.613374933549778</v>
       </c>
       <c r="D2">
-        <v>0.110270832915905</v>
+        <v>0.06088492410715673</v>
       </c>
       <c r="E2">
-        <v>0.03943840680650545</v>
+        <v>1.356479929725381</v>
       </c>
       <c r="F2">
-        <v>2.672455984771176</v>
+        <v>2.645127540111275</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.01144655875568718</v>
       </c>
       <c r="I2">
-        <v>1.972431830988569</v>
+        <v>0.005281387690668105</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.03468255659601</v>
+        <v>1.328854397747179</v>
       </c>
       <c r="L2">
-        <v>0.283186989910476</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8652978625925698</v>
+        <v>3.024616649465713</v>
       </c>
       <c r="C3">
-        <v>0.1186730373222673</v>
+        <v>1.395841410950993</v>
       </c>
       <c r="D3">
-        <v>0.1098907612130873</v>
+        <v>0.056727007154322</v>
       </c>
       <c r="E3">
-        <v>0.03649973709187648</v>
+        <v>1.171057649894223</v>
       </c>
       <c r="F3">
-        <v>2.463072915715898</v>
+        <v>2.342708097165541</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.007113262253055419</v>
+      </c>
+      <c r="I3">
+        <v>0.002321255581892778</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>1.84481309203106</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0.8951025098830883</v>
+        <v>1.200862003686936</v>
       </c>
       <c r="L3">
-        <v>0.2506323633886183</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7868017987075859</v>
+        <v>2.744031945086761</v>
       </c>
       <c r="C4">
-        <v>0.1073259060488141</v>
+        <v>1.264002425289107</v>
       </c>
       <c r="D4">
-        <v>0.1096617843468444</v>
+        <v>0.05410468953916237</v>
       </c>
       <c r="E4">
-        <v>0.03474704728522227</v>
+        <v>1.058474061416703</v>
       </c>
       <c r="F4">
-        <v>2.337657825617455</v>
+        <v>2.158375280623503</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.004907879403153403</v>
+      </c>
+      <c r="I4">
+        <v>0.001174468407385998</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>1.768532288197761</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0.8107649303889275</v>
+        <v>1.122478586734346</v>
       </c>
       <c r="L4">
-        <v>0.2310512718310633</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7551205542820014</v>
+        <v>2.629857232481072</v>
       </c>
       <c r="C5">
-        <v>0.1027321498488476</v>
+        <v>1.211736033577381</v>
       </c>
       <c r="D5">
-        <v>0.1095692770163623</v>
+        <v>0.05279790972937803</v>
       </c>
       <c r="E5">
-        <v>0.03404487004883094</v>
+        <v>1.012825012849802</v>
       </c>
       <c r="F5">
-        <v>2.287269446266436</v>
+        <v>2.078960503186494</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.004110373425145974</v>
+      </c>
+      <c r="I5">
+        <v>0.0009204461189349367</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>1.737924179225132</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0.7766982234459192</v>
+        <v>1.087264682543847</v>
       </c>
       <c r="L5">
-        <v>0.2231640883285593</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.749877364036962</v>
+        <v>2.61084287490462</v>
       </c>
       <c r="C6">
-        <v>0.1019710183587392</v>
+        <v>1.204408024091265</v>
       </c>
       <c r="D6">
-        <v>0.1095539563250156</v>
+        <v>0.05231204321139771</v>
       </c>
       <c r="E6">
-        <v>0.03392897624760849</v>
+        <v>1.005214303410341</v>
       </c>
       <c r="F6">
-        <v>2.278943925900549</v>
+        <v>2.060221970622536</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.003980296896317848</v>
+      </c>
+      <c r="I6">
+        <v>0.0009676121429746942</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>1.732869261137552</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0.7710585227363822</v>
+        <v>1.077403074454786</v>
       </c>
       <c r="L6">
-        <v>0.2218597153143946</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7863733413873035</v>
+        <v>2.742297609958882</v>
       </c>
       <c r="C7">
-        <v>0.1072638382013622</v>
+        <v>1.266936157389068</v>
       </c>
       <c r="D7">
-        <v>0.1096605338931091</v>
+        <v>0.05335143016367283</v>
       </c>
       <c r="E7">
-        <v>0.0347375298421575</v>
+        <v>1.057728646008584</v>
       </c>
       <c r="F7">
-        <v>2.336975449523237</v>
+        <v>2.142047352978906</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.004885518807755007</v>
+      </c>
+      <c r="I7">
+        <v>0.0013704292771477</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>1.768117623283516</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0.8103043268791907</v>
+        <v>1.110995937265997</v>
       </c>
       <c r="L7">
-        <v>0.2309445418993761</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9502143891780861</v>
+        <v>3.324668965623971</v>
       </c>
       <c r="C8">
-        <v>0.1309022341947355</v>
+        <v>1.542826929245166</v>
       </c>
       <c r="D8">
-        <v>0.1101386852139861</v>
+        <v>0.05847762241019439</v>
       </c>
       <c r="E8">
-        <v>0.03841384723799912</v>
+        <v>1.292057966851459</v>
       </c>
       <c r="F8">
-        <v>2.59956253482494</v>
+        <v>2.520107375316471</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.009831045347703994</v>
+      </c>
+      <c r="I8">
+        <v>0.004326697191925355</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>1.927969258911006</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0.9862458918172479</v>
+        <v>1.269933901314559</v>
       </c>
       <c r="L8">
-        <v>0.2718711708796917</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.284257165964021</v>
+        <v>4.47975358781548</v>
       </c>
       <c r="C9">
-        <v>0.1787130324923965</v>
+        <v>2.09398793479852</v>
       </c>
       <c r="D9">
-        <v>0.1111259660431081</v>
+        <v>0.0693666660518133</v>
       </c>
       <c r="E9">
-        <v>0.04607900850666624</v>
+        <v>1.764440330862371</v>
       </c>
       <c r="F9">
-        <v>3.143014371098161</v>
+        <v>3.304154478021303</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.02367412265132618</v>
+      </c>
+      <c r="I9">
+        <v>0.01593749642475117</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>2.260162891104628</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1.344165502438642</v>
+        <v>1.605014037554724</v>
       </c>
       <c r="L9">
-        <v>0.3558666557769072</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.54034851133656</v>
+        <v>5.338264836736926</v>
       </c>
       <c r="C10">
-        <v>0.2152000681282686</v>
+        <v>2.496705675897431</v>
       </c>
       <c r="D10">
-        <v>0.1119043272924216</v>
+        <v>0.07281394809853481</v>
       </c>
       <c r="E10">
-        <v>0.05205892635346387</v>
+        <v>2.017657860794316</v>
       </c>
       <c r="F10">
-        <v>3.565117904569718</v>
+        <v>3.802386134472556</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.03602846926439041</v>
+      </c>
+      <c r="I10">
+        <v>0.02884644920736612</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>2.519073611366039</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>1.618179108173308</v>
+        <v>1.798043961041216</v>
       </c>
       <c r="L10">
-        <v>0.4206322322934284</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.659895711571352</v>
+        <v>5.705810615032476</v>
       </c>
       <c r="C11">
-        <v>0.2322140500846359</v>
+        <v>2.525867174708992</v>
       </c>
       <c r="D11">
-        <v>0.1122756918721066</v>
+        <v>0.04507336173642429</v>
       </c>
       <c r="E11">
-        <v>0.05487250897701657</v>
+        <v>1.320189676939876</v>
       </c>
       <c r="F11">
-        <v>3.763462163184755</v>
+        <v>3.293447672723943</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.05111765022290271</v>
+      </c>
+      <c r="I11">
+        <v>0.03150762128684548</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>2.640940796275956</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>1.746036091219992</v>
+        <v>1.441952950345581</v>
       </c>
       <c r="L11">
-        <v>0.450953001041313</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.705671810514218</v>
+        <v>5.835921487737266</v>
       </c>
       <c r="C12">
-        <v>0.2387278985640648</v>
+        <v>2.45979782180973</v>
       </c>
       <c r="D12">
-        <v>0.1124193511547418</v>
+        <v>0.02976213487912638</v>
       </c>
       <c r="E12">
-        <v>0.05595298190256415</v>
+        <v>0.8131689918422751</v>
       </c>
       <c r="F12">
-        <v>3.839606929892284</v>
+        <v>2.819105518248847</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.08601674493478839</v>
+      </c>
+      <c r="I12">
+        <v>0.03081055981976366</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>2.687756573015065</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>1.794988501950911</v>
+        <v>1.152236137760013</v>
       </c>
       <c r="L12">
-        <v>0.462576274347029</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.695789438806742</v>
+        <v>5.789420491062003</v>
       </c>
       <c r="C13">
-        <v>0.2373216729881875</v>
+        <v>2.323653267858788</v>
       </c>
       <c r="D13">
-        <v>0.1123882673193677</v>
+        <v>0.02188097454911908</v>
       </c>
       <c r="E13">
-        <v>0.05571958668734922</v>
+        <v>0.4250943338176967</v>
       </c>
       <c r="F13">
-        <v>3.823159551844185</v>
+        <v>2.322871786617142</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1375193396660848</v>
+      </c>
+      <c r="I13">
+        <v>0.02777510898398017</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>2.677642918349861</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>1.784420617948143</v>
+        <v>0.8806734553208457</v>
       </c>
       <c r="L13">
-        <v>0.4600663953443984</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.663651180222047</v>
+        <v>5.677657877254489</v>
       </c>
       <c r="C14">
-        <v>0.2327484558928461</v>
+        <v>2.199402673939346</v>
       </c>
       <c r="D14">
-        <v>0.1122874466859258</v>
+        <v>0.02064286549770511</v>
       </c>
       <c r="E14">
-        <v>0.05496108904236507</v>
+        <v>0.2267889534413357</v>
       </c>
       <c r="F14">
-        <v>3.769705101412313</v>
+        <v>1.970683067553182</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1839018022402996</v>
+      </c>
+      <c r="I14">
+        <v>0.02487128273205474</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>2.644778497631421</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>1.750052240826903</v>
+        <v>0.7026944519309808</v>
       </c>
       <c r="L14">
-        <v>0.4519063096051354</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.644033621786065</v>
+        <v>5.612651625254216</v>
       </c>
       <c r="C15">
-        <v>0.2299568333017845</v>
+        <v>2.155890827529561</v>
       </c>
       <c r="D15">
-        <v>0.1122261032691299</v>
+        <v>0.02095971093723037</v>
       </c>
       <c r="E15">
-        <v>0.05449849557175312</v>
+        <v>0.1871433654616048</v>
       </c>
       <c r="F15">
-        <v>3.7371016203289</v>
+        <v>1.872408102535715</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1953873253712572</v>
+      </c>
+      <c r="I15">
+        <v>0.02376498962139717</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>2.624737504544214</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>1.729072745550383</v>
+        <v>0.6568124759053262</v>
       </c>
       <c r="L15">
-        <v>0.4469270109529049</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.532602802743014</v>
+        <v>5.252470529496065</v>
       </c>
       <c r="C16">
-        <v>0.214097462347226</v>
+        <v>2.017525644890611</v>
       </c>
       <c r="D16">
-        <v>0.1118804507653657</v>
+        <v>0.02144065671280337</v>
       </c>
       <c r="E16">
-        <v>0.05187706360038646</v>
+        <v>0.177915496982223</v>
       </c>
       <c r="F16">
-        <v>3.552293445535014</v>
+        <v>1.769153986012341</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1789216253694832</v>
+      </c>
+      <c r="I16">
+        <v>0.01912864907318124</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>2.511198160468652</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>1.609894072844355</v>
+        <v>0.6339528964656651</v>
       </c>
       <c r="L16">
-        <v>0.418669469661836</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.465070564153677</v>
+        <v>5.036003930617369</v>
       </c>
       <c r="C17">
-        <v>0.2044823453578601</v>
+        <v>1.976765770050804</v>
       </c>
       <c r="D17">
-        <v>0.1116731996813698</v>
+        <v>0.02167632499896177</v>
       </c>
       <c r="E17">
-        <v>0.05029389083316005</v>
+        <v>0.2612621694302817</v>
       </c>
       <c r="F17">
-        <v>3.440625806118845</v>
+        <v>1.870108913271409</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1397312595515103</v>
+      </c>
+      <c r="I17">
+        <v>0.0171108415187522</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>2.44264630010386</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1.537653682654678</v>
+        <v>0.7057534046978517</v>
       </c>
       <c r="L17">
-        <v>0.4015664883310137</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.4265104209627</v>
+        <v>4.918011590237541</v>
       </c>
       <c r="C18">
-        <v>0.1989903813657605</v>
+        <v>2.01243346959609</v>
       </c>
       <c r="D18">
-        <v>0.1115555849302261</v>
+        <v>0.02539767142599736</v>
       </c>
       <c r="E18">
-        <v>0.04939196629345233</v>
+        <v>0.4975116742855334</v>
       </c>
       <c r="F18">
-        <v>3.376984765339984</v>
+        <v>2.186003137423356</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.0877490111775856</v>
+      </c>
+      <c r="I18">
+        <v>0.01673898222285164</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>2.403596568573079</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>1.49639983123501</v>
+        <v>0.8898595750036336</v>
       </c>
       <c r="L18">
-        <v>0.3918089336595898</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.413501218295949</v>
+        <v>4.888323397883482</v>
       </c>
       <c r="C19">
-        <v>0.1971371702765339</v>
+        <v>2.1162984170698</v>
       </c>
       <c r="D19">
-        <v>0.1115160201778522</v>
+        <v>0.03677644116860179</v>
       </c>
       <c r="E19">
-        <v>0.04908803347716528</v>
+        <v>0.9395971567018648</v>
       </c>
       <c r="F19">
-        <v>3.355534231294655</v>
+        <v>2.661254036254292</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.04606815542402387</v>
+      </c>
+      <c r="I19">
+        <v>0.01834453937784453</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>2.390437890313933</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>1.482480840430668</v>
+        <v>1.163594459702438</v>
       </c>
       <c r="L19">
-        <v>0.3885183524298839</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.472229770728461</v>
+        <v>5.110620796139131</v>
       </c>
       <c r="C20">
-        <v>0.205501839845553</v>
+        <v>2.400710921950861</v>
       </c>
       <c r="D20">
-        <v>0.1116950935418473</v>
+        <v>0.06944727343843482</v>
       </c>
       <c r="E20">
-        <v>0.05046151332263449</v>
+        <v>1.945516874609254</v>
       </c>
       <c r="F20">
-        <v>3.452451369245438</v>
+        <v>3.618004573626678</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.03241020911102899</v>
+      </c>
+      <c r="I20">
+        <v>0.02552746455082833</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>2.449903938139428</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>1.545312552280222</v>
+        <v>1.709780134663802</v>
       </c>
       <c r="L20">
-        <v>0.4033787645419835</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.673076652175411</v>
+        <v>5.780065390039681</v>
       </c>
       <c r="C21">
-        <v>0.2340896970207353</v>
+        <v>2.742611403160481</v>
       </c>
       <c r="D21">
-        <v>0.1123169731924563</v>
+        <v>0.0785441029801035</v>
       </c>
       <c r="E21">
-        <v>0.05518345654422063</v>
+        <v>2.307378165113889</v>
       </c>
       <c r="F21">
-        <v>3.785376774729883</v>
+        <v>4.149384388296198</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.04483469326836165</v>
+      </c>
+      <c r="I21">
+        <v>0.03800767436370478</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>2.65441278651744</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>1.760131889604793</v>
+        <v>1.948196706881333</v>
       </c>
       <c r="L21">
-        <v>0.4542991322529559</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.807329064752338</v>
+        <v>6.220984295597191</v>
       </c>
       <c r="C22">
-        <v>0.2531936906296579</v>
+        <v>2.956064445516745</v>
       </c>
       <c r="D22">
-        <v>0.1127413809331088</v>
+        <v>0.08351981752981175</v>
       </c>
       <c r="E22">
-        <v>0.05835800441458616</v>
+        <v>2.494276228665015</v>
       </c>
       <c r="F22">
-        <v>4.009070890396004</v>
+        <v>4.479498185024255</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.05333456272760806</v>
+      </c>
+      <c r="I22">
+        <v>0.04706490030258248</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>2.79200419839502</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>1.903692426650679</v>
+        <v>2.0945099916907</v>
       </c>
       <c r="L22">
-        <v>0.4884128806940709</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.735378318043388</v>
+        <v>5.985666324605063</v>
       </c>
       <c r="C23">
-        <v>0.2429550189552145</v>
+        <v>2.837281303199745</v>
       </c>
       <c r="D23">
-        <v>0.1125130237322267</v>
+        <v>0.08177593466791677</v>
       </c>
       <c r="E23">
-        <v>0.05665501250854632</v>
+        <v>2.39443331808414</v>
       </c>
       <c r="F23">
-        <v>3.889076811984268</v>
+        <v>4.321602338963913</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.04875043510111166</v>
+      </c>
+      <c r="I23">
+        <v>0.04195045752052717</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>2.718180580828488</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>1.826755069716057</v>
+        <v>2.02975807562224</v>
       </c>
       <c r="L23">
-        <v>0.4701229124692219</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.468992272907826</v>
+        <v>5.102676260185888</v>
       </c>
       <c r="C24">
-        <v>0.2050408154148613</v>
+        <v>2.403239022816251</v>
       </c>
       <c r="D24">
-        <v>0.1116851905817171</v>
+        <v>0.07372124878861541</v>
       </c>
       <c r="E24">
-        <v>0.05038570557906752</v>
+        <v>2.023064854462746</v>
       </c>
       <c r="F24">
-        <v>3.447103302943333</v>
+        <v>3.705123772967482</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.03310274117799406</v>
+      </c>
+      <c r="I24">
+        <v>0.0254389440661269</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>2.446621639441886</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1.541849116600901</v>
+        <v>1.767427704640156</v>
       </c>
       <c r="L24">
-        <v>0.4025592016422763</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.192242619953106</v>
+        <v>4.164878305338391</v>
       </c>
       <c r="C25">
-        <v>0.1655771722111297</v>
+        <v>1.949342072127422</v>
       </c>
       <c r="D25">
-        <v>0.1108513585674693</v>
+        <v>0.06510329931948888</v>
       </c>
       <c r="E25">
-        <v>0.04394969355206513</v>
+        <v>1.634608361435113</v>
       </c>
       <c r="F25">
-        <v>2.992412090599544</v>
+        <v>3.061563077786985</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.01937495171936998</v>
+      </c>
+      <c r="I25">
+        <v>0.01230738649767371</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>2.167956128921617</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>1.245647776365416</v>
+        <v>1.493385972222626</v>
       </c>
       <c r="L25">
-        <v>0.3326678645092613</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.483469309552845</v>
+        <v>3.483809474880275</v>
       </c>
       <c r="C2">
-        <v>1.613374933549778</v>
+        <v>1.814694126153711</v>
       </c>
       <c r="D2">
-        <v>0.06088492410715673</v>
+        <v>0.02992712345333715</v>
       </c>
       <c r="E2">
-        <v>1.356479929725381</v>
+        <v>1.355831735926742</v>
       </c>
       <c r="F2">
-        <v>2.645127540111275</v>
+        <v>1.88937383748781</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01144655875568718</v>
+        <v>0.01137503460103745</v>
       </c>
       <c r="I2">
-        <v>0.005281387690668105</v>
+        <v>0.005399673424639317</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>1.328854397747179</v>
+        <v>0.801911550590205</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3703586267033003</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2474540943803802</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.024616649465713</v>
+        <v>3.028852042054609</v>
       </c>
       <c r="C3">
-        <v>1.395841410950993</v>
+        <v>1.565872579843585</v>
       </c>
       <c r="D3">
-        <v>0.056727007154322</v>
+        <v>0.02977169674131375</v>
       </c>
       <c r="E3">
-        <v>1.171057649894223</v>
+        <v>1.172825519940261</v>
       </c>
       <c r="F3">
-        <v>2.342708097165541</v>
+        <v>1.69924367188797</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.007113262253055419</v>
+        <v>0.007285451011774025</v>
       </c>
       <c r="I3">
-        <v>0.002321255581892778</v>
+        <v>0.002759543213085358</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>1.200862003686936</v>
+        <v>0.7487200182695375</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3605524955656847</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2168951204453222</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.744031945086761</v>
+        <v>2.750081164131586</v>
       </c>
       <c r="C4">
-        <v>1.264002425289107</v>
+        <v>1.414949101116463</v>
       </c>
       <c r="D4">
-        <v>0.05410468953916237</v>
+        <v>0.02961768058623981</v>
       </c>
       <c r="E4">
-        <v>1.058474061416703</v>
+        <v>1.061465007075597</v>
       </c>
       <c r="F4">
-        <v>2.158375280623503</v>
+        <v>1.583047295845773</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.004907879403153403</v>
+        <v>0.005169791532002588</v>
       </c>
       <c r="I4">
-        <v>0.001174468407385998</v>
+        <v>0.001636784949937464</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>1.122478586734346</v>
+        <v>0.7159076390091457</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3540190416481153</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1991171480211875</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.629857232481072</v>
+        <v>2.636524474009548</v>
       </c>
       <c r="C5">
-        <v>1.211736033577381</v>
+        <v>1.35479521798959</v>
       </c>
       <c r="D5">
-        <v>0.05279790972937803</v>
+        <v>0.02944835096884546</v>
       </c>
       <c r="E5">
-        <v>1.012825012849802</v>
+        <v>1.016263446481304</v>
       </c>
       <c r="F5">
-        <v>2.078960503186494</v>
+        <v>1.532637471916161</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.004110373425145974</v>
+        <v>0.004395824769763523</v>
       </c>
       <c r="I5">
-        <v>0.0009204461189349367</v>
+        <v>0.001365317589097081</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>1.087264682543847</v>
+        <v>0.7004325408128906</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3503657987947264</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1914274822970761</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.61084287490462</v>
+        <v>2.617612726795869</v>
       </c>
       <c r="C6">
-        <v>1.204408024091265</v>
+        <v>1.345983872182671</v>
       </c>
       <c r="D6">
-        <v>0.05231204321139771</v>
+        <v>0.02930798307529692</v>
       </c>
       <c r="E6">
-        <v>1.005214303410341</v>
+        <v>1.008731304065577</v>
       </c>
       <c r="F6">
-        <v>2.060221970622536</v>
+        <v>1.520432531907957</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.003980296896317848</v>
+        <v>0.004269431102086996</v>
       </c>
       <c r="I6">
-        <v>0.0009676121429746942</v>
+        <v>0.001423362695401664</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>1.077403074454786</v>
+        <v>0.6953606879582921</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3487030693807753</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.189335069671003</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.742297609958882</v>
+        <v>2.748378798309091</v>
       </c>
       <c r="C7">
-        <v>1.266936157389068</v>
+        <v>1.417297816196651</v>
       </c>
       <c r="D7">
-        <v>0.05335143016367283</v>
+        <v>0.02931338706068587</v>
       </c>
       <c r="E7">
-        <v>1.057728646008584</v>
+        <v>1.060747986140967</v>
       </c>
       <c r="F7">
-        <v>2.142047352978906</v>
+        <v>1.571878874999655</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.004885518807755007</v>
+        <v>0.005149608706966458</v>
       </c>
       <c r="I7">
-        <v>0.0013704292771477</v>
+        <v>0.00187514062345695</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>1.110995937265997</v>
+        <v>0.708882653607688</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3511485931507181</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1967109728621352</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.324668965623971</v>
+        <v>3.326531897536427</v>
       </c>
       <c r="C8">
-        <v>1.542826929245166</v>
+        <v>1.732702355062315</v>
       </c>
       <c r="D8">
-        <v>0.05847762241019439</v>
+        <v>0.02949800328388186</v>
       </c>
       <c r="E8">
-        <v>1.292057966851459</v>
+        <v>1.292340010190017</v>
       </c>
       <c r="F8">
-        <v>2.520107375316471</v>
+        <v>1.809777234187422</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.009831045347703994</v>
+        <v>0.009860999474338498</v>
       </c>
       <c r="I8">
-        <v>0.004326697191925355</v>
+        <v>0.004652938366199066</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>1.269933901314559</v>
+        <v>0.7746194595466775</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3635247860605233</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2335145360071778</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.47975358781548</v>
+        <v>4.467768563141874</v>
       </c>
       <c r="C9">
-        <v>2.09398793479852</v>
+        <v>2.363135114858721</v>
       </c>
       <c r="D9">
-        <v>0.0693666660518133</v>
+        <v>0.02991607706274735</v>
       </c>
       <c r="E9">
-        <v>1.764440330862371</v>
+        <v>1.756804239698141</v>
       </c>
       <c r="F9">
-        <v>3.304154478021303</v>
+        <v>2.302129463882991</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.02367412265132618</v>
+        <v>0.02268194091399289</v>
       </c>
       <c r="I9">
-        <v>0.01593749642475117</v>
+        <v>0.01425039364331937</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.605014037554724</v>
+        <v>0.9153453805433784</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3885783689225448</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3185837227176975</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.338264836736926</v>
+        <v>5.312076719016488</v>
       </c>
       <c r="C10">
-        <v>2.496705675897431</v>
+        <v>2.818377231304908</v>
       </c>
       <c r="D10">
-        <v>0.07281394809853481</v>
+        <v>0.02860040168730293</v>
       </c>
       <c r="E10">
-        <v>2.017657860794316</v>
+        <v>2.002782657276185</v>
       </c>
       <c r="F10">
-        <v>3.802386134472556</v>
+        <v>2.612852519351065</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03602846926439041</v>
+        <v>0.03391069671651081</v>
       </c>
       <c r="I10">
-        <v>0.02884644920736612</v>
+        <v>0.02455078627955487</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.798043961041216</v>
+        <v>0.9889876280713992</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3936669187380204</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3749928841423724</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.705810615032476</v>
+        <v>5.678278132004777</v>
       </c>
       <c r="C11">
-        <v>2.525867174708992</v>
+        <v>2.819712561297308</v>
       </c>
       <c r="D11">
-        <v>0.04507336173642429</v>
+        <v>0.02099085789417821</v>
       </c>
       <c r="E11">
-        <v>1.320189676939876</v>
+        <v>1.307815767583833</v>
       </c>
       <c r="F11">
-        <v>3.293447672723943</v>
+        <v>2.286167355887315</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.05111765022290271</v>
+        <v>0.04914019756212795</v>
       </c>
       <c r="I11">
-        <v>0.03150762128684548</v>
+        <v>0.02706181134820085</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.441952950345581</v>
+        <v>0.7880266942619585</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3131399498497984</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3065158954887437</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.835921487737266</v>
+        <v>5.809991020206951</v>
       </c>
       <c r="C12">
-        <v>2.45979782180973</v>
+        <v>2.720282187067596</v>
       </c>
       <c r="D12">
-        <v>0.02976213487912638</v>
+        <v>0.02003601223163898</v>
       </c>
       <c r="E12">
-        <v>0.8131689918422751</v>
+        <v>0.8035738203696781</v>
       </c>
       <c r="F12">
-        <v>2.819105518248847</v>
+        <v>1.981428861850432</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.08601674493478839</v>
+        <v>0.08430556852334803</v>
       </c>
       <c r="I12">
-        <v>0.03081055981976366</v>
+        <v>0.02667875735415226</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.152236137760013</v>
+        <v>0.6313992089514358</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2554305534690826</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2468747681776975</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.789420491062003</v>
+        <v>5.767415868112607</v>
       </c>
       <c r="C13">
-        <v>2.323653267858788</v>
+        <v>2.544169231644105</v>
       </c>
       <c r="D13">
-        <v>0.02188097454911908</v>
+        <v>0.02341051959441032</v>
       </c>
       <c r="E13">
-        <v>0.4250943338176967</v>
+        <v>0.4183547616485157</v>
       </c>
       <c r="F13">
-        <v>2.322871786617142</v>
+        <v>1.660542750066625</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1375193396660848</v>
+        <v>0.1361683069256401</v>
       </c>
       <c r="I13">
-        <v>0.02777510898398017</v>
+        <v>0.02438702940652959</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.8806734553208457</v>
+        <v>0.4890041012095097</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2066685270762569</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1875863924927685</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.677657877254489</v>
+        <v>5.659185276883704</v>
       </c>
       <c r="C14">
-        <v>2.199402673939346</v>
+        <v>2.389196264672478</v>
       </c>
       <c r="D14">
-        <v>0.02064286549770511</v>
+        <v>0.02821874055139162</v>
       </c>
       <c r="E14">
-        <v>0.2267889534413357</v>
+        <v>0.2218539108084698</v>
       </c>
       <c r="F14">
-        <v>1.970683067553182</v>
+        <v>1.430858814552934</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1839018022402996</v>
+        <v>0.182817841180551</v>
       </c>
       <c r="I14">
-        <v>0.02487128273205474</v>
+        <v>0.02214830350294505</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.7026944519309808</v>
+        <v>0.3971971118817876</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1765039552885881</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1474577289074404</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.612651625254216</v>
+        <v>5.595538535097774</v>
       </c>
       <c r="C15">
-        <v>2.155890827529561</v>
+        <v>2.336613896666847</v>
       </c>
       <c r="D15">
-        <v>0.02095971093723037</v>
+        <v>0.02974615237807754</v>
       </c>
       <c r="E15">
-        <v>0.1871433654616048</v>
+        <v>0.1827178665413953</v>
       </c>
       <c r="F15">
-        <v>1.872408102535715</v>
+        <v>1.366415451598215</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1953873253712572</v>
+        <v>0.1943953191300523</v>
       </c>
       <c r="I15">
-        <v>0.02376498962139717</v>
+        <v>0.02131400877922385</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.6568124759053262</v>
+        <v>0.3741318120308605</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.169401305311343</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1366139162873452</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.252470529496065</v>
+        <v>5.240310649733203</v>
       </c>
       <c r="C16">
-        <v>2.017525644890611</v>
+        <v>2.184804851284696</v>
       </c>
       <c r="D16">
-        <v>0.02144065671280337</v>
+        <v>0.0290881727327843</v>
       </c>
       <c r="E16">
-        <v>0.177915496982223</v>
+        <v>0.1746659430886233</v>
       </c>
       <c r="F16">
-        <v>1.769153986012341</v>
+        <v>1.300091895407618</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1789216253694832</v>
+        <v>0.1782299116539292</v>
       </c>
       <c r="I16">
-        <v>0.01912864907318124</v>
+        <v>0.0175738723250225</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.6339528964656651</v>
+        <v>0.3700124395980779</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1729244654406017</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.127215981859564</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.036003930617369</v>
+        <v>5.025839443571101</v>
       </c>
       <c r="C17">
-        <v>1.976765770050804</v>
+        <v>2.149740239441428</v>
       </c>
       <c r="D17">
-        <v>0.02167632499896177</v>
+        <v>0.02572725164155898</v>
       </c>
       <c r="E17">
-        <v>0.2612621694302817</v>
+        <v>0.2582137683793846</v>
       </c>
       <c r="F17">
-        <v>1.870108913271409</v>
+        <v>1.367899174370152</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1397312595515103</v>
+        <v>0.1391431844632933</v>
       </c>
       <c r="I17">
-        <v>0.0171108415187522</v>
+        <v>0.01591017721318444</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.7057534046978517</v>
+        <v>0.4136004826130915</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1917091419655961</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1398230647204919</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.918011590237541</v>
+        <v>4.907604435807173</v>
       </c>
       <c r="C18">
-        <v>2.01243346959609</v>
+        <v>2.209061859714552</v>
       </c>
       <c r="D18">
-        <v>0.02539767142599736</v>
+        <v>0.02176715082716818</v>
       </c>
       <c r="E18">
-        <v>0.4975116742855334</v>
+        <v>0.4937309536014922</v>
       </c>
       <c r="F18">
-        <v>2.186003137423356</v>
+        <v>1.576031004389478</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0877490111775856</v>
+        <v>0.08710745581106494</v>
       </c>
       <c r="I18">
-        <v>0.01673898222285164</v>
+        <v>0.01545638384193992</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.8898595750036336</v>
+        <v>0.5158740978677656</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2309032864651854</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1770640698021992</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.888323397883482</v>
+        <v>4.875615288569008</v>
       </c>
       <c r="C19">
-        <v>2.1162984170698</v>
+        <v>2.349295383272306</v>
       </c>
       <c r="D19">
-        <v>0.03677644116860179</v>
+        <v>0.02101317254042256</v>
       </c>
       <c r="E19">
-        <v>0.9395971567018648</v>
+        <v>0.9338731102047717</v>
       </c>
       <c r="F19">
-        <v>2.661254036254292</v>
+        <v>1.884608834768528</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04606815542402387</v>
+        <v>0.04520079774711405</v>
       </c>
       <c r="I19">
-        <v>0.01834453937784453</v>
+        <v>0.01669709949296205</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>1.163594459702438</v>
+        <v>0.6633893554586123</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2855894946829807</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2336302177990532</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.110620796139131</v>
+        <v>5.088797078567268</v>
       </c>
       <c r="C20">
-        <v>2.400710921950861</v>
+        <v>2.706855934612122</v>
       </c>
       <c r="D20">
-        <v>0.06944727343843482</v>
+        <v>0.02810162058007215</v>
       </c>
       <c r="E20">
-        <v>1.945516874609254</v>
+        <v>1.932862624042855</v>
       </c>
       <c r="F20">
-        <v>3.618004573626678</v>
+        <v>2.495749308071737</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.03241020911102899</v>
+        <v>0.03064598259193296</v>
       </c>
       <c r="I20">
-        <v>0.02552746455082833</v>
+        <v>0.02222902504347601</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.709780134663802</v>
+        <v>0.9477127574023854</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3845258307116879</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3512403554010248</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.780065390039681</v>
+        <v>5.744223000716829</v>
       </c>
       <c r="C21">
-        <v>2.742611403160481</v>
+        <v>3.098571686463515</v>
       </c>
       <c r="D21">
-        <v>0.0785441029801035</v>
+        <v>0.02904751496785529</v>
       </c>
       <c r="E21">
-        <v>2.307378165113889</v>
+        <v>2.287084527472842</v>
       </c>
       <c r="F21">
-        <v>4.149384388296198</v>
+        <v>2.828814174368063</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.04483469326836165</v>
+        <v>0.04187422314151235</v>
       </c>
       <c r="I21">
-        <v>0.03800767436370478</v>
+        <v>0.03193628268464455</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.948196706881333</v>
+        <v>1.052175142345931</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4049742470184796</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4153380130840461</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.220984295597191</v>
+        <v>6.174769940636963</v>
       </c>
       <c r="C22">
-        <v>2.956064445516745</v>
+        <v>3.342184624616493</v>
       </c>
       <c r="D22">
-        <v>0.08351981752981175</v>
+        <v>0.02935796999186024</v>
       </c>
       <c r="E22">
-        <v>2.494276228665015</v>
+        <v>2.468590454058472</v>
       </c>
       <c r="F22">
-        <v>4.479498185024255</v>
+        <v>3.035769639731456</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.05333456272760806</v>
+        <v>0.04948533362053364</v>
       </c>
       <c r="I22">
-        <v>0.04706490030258248</v>
+        <v>0.03878087491261262</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.0945099916907</v>
+        <v>1.115855705001053</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4159332295033238</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.45676783269829</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.985666324605063</v>
+        <v>5.945018260899303</v>
       </c>
       <c r="C23">
-        <v>2.837281303199745</v>
+        <v>3.207866429965122</v>
       </c>
       <c r="D23">
-        <v>0.08177593466791677</v>
+        <v>0.02950793237936367</v>
       </c>
       <c r="E23">
-        <v>2.39443331808414</v>
+        <v>2.371624694272512</v>
       </c>
       <c r="F23">
-        <v>4.321602338963913</v>
+        <v>2.937436710035598</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.04875043510111166</v>
+        <v>0.04537911742257172</v>
       </c>
       <c r="I23">
-        <v>0.04195045752052717</v>
+        <v>0.03479553396407642</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>2.02975807562224</v>
+        <v>1.089656641329711</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4128700117133164</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4376812760907711</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.102676260185888</v>
+        <v>5.080384455949684</v>
       </c>
       <c r="C24">
-        <v>2.403239022816251</v>
+        <v>2.714104628761049</v>
       </c>
       <c r="D24">
-        <v>0.07372124878861541</v>
+        <v>0.02949947525831753</v>
       </c>
       <c r="E24">
-        <v>2.023064854462746</v>
+        <v>2.009886120643074</v>
       </c>
       <c r="F24">
-        <v>3.705123772967482</v>
+        <v>2.552013902087197</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.03310274117799406</v>
+        <v>0.03127716499842359</v>
       </c>
       <c r="I24">
-        <v>0.0254389440661269</v>
+        <v>0.02194841779311218</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.767427704640156</v>
+        <v>0.9797846125099312</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.39639418380726</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3635386544168213</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.164878305338391</v>
+        <v>4.157469583947375</v>
       </c>
       <c r="C25">
-        <v>1.949342072127422</v>
+        <v>2.196095874306025</v>
       </c>
       <c r="D25">
-        <v>0.06510329931948888</v>
+        <v>0.02934750857889767</v>
       </c>
       <c r="E25">
-        <v>1.634608361435113</v>
+        <v>1.629516615693646</v>
       </c>
       <c r="F25">
-        <v>3.061563077786985</v>
+        <v>2.148784850951174</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01937495171936998</v>
+        <v>0.01874023423552007</v>
       </c>
       <c r="I25">
-        <v>0.01230738649767371</v>
+        <v>0.01146884441591745</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.493385972222626</v>
+        <v>0.8650191210109384</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3776339585914883</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.289978945963469</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
